--- a/Code/Results/Cases/Case_5_202/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_202/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.0132759790053</v>
+        <v>0.3306367468558449</v>
       </c>
       <c r="C2">
-        <v>0.2053495149300062</v>
+        <v>0.06440320679725176</v>
       </c>
       <c r="D2">
-        <v>0.05431328599929941</v>
+        <v>0.02380209259329291</v>
       </c>
       <c r="E2">
-        <v>1.395292138253325</v>
+        <v>0.4180825186005563</v>
       </c>
       <c r="F2">
-        <v>0.4605004244455131</v>
+        <v>0.6122752868145653</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2247987601254309</v>
+        <v>0.4517866951497496</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.165593111650878</v>
+        <v>0.3611763121003264</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5777724776367501</v>
+        <v>1.189202072763843</v>
       </c>
       <c r="O2">
-        <v>1.279616624954912</v>
+        <v>2.053608104493634</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.881200383826183</v>
+        <v>0.2911160902318386</v>
       </c>
       <c r="C3">
-        <v>0.1800644660797985</v>
+        <v>0.05667629207731295</v>
       </c>
       <c r="D3">
-        <v>0.04862078276505599</v>
+        <v>0.02184017161742702</v>
       </c>
       <c r="E3">
-        <v>1.199493521828842</v>
+        <v>0.3648139447740704</v>
       </c>
       <c r="F3">
-        <v>0.4280140974214675</v>
+        <v>0.6089813308479037</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2233319828224651</v>
+        <v>0.4552154285460013</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.014907234807424</v>
+        <v>0.315793928048123</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6121450486957141</v>
+        <v>1.203388477486316</v>
       </c>
       <c r="O3">
-        <v>1.218852667249507</v>
+        <v>2.05573438518465</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8002701509224437</v>
+        <v>0.2668413665212199</v>
       </c>
       <c r="C4">
-        <v>0.1645836569515069</v>
+        <v>0.05190885488340768</v>
       </c>
       <c r="D4">
-        <v>0.04510987478818151</v>
+        <v>0.0206255991230222</v>
       </c>
       <c r="E4">
-        <v>1.081272718356487</v>
+        <v>0.3321876317310313</v>
       </c>
       <c r="F4">
-        <v>0.4090345727539528</v>
+        <v>0.6073720781821166</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2230120411579186</v>
+        <v>0.4575912503754189</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9225832369249076</v>
+        <v>0.2878860502833902</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6341793295643541</v>
+        <v>1.212544879463678</v>
       </c>
       <c r="O4">
-        <v>1.184620565841328</v>
+        <v>2.058376677175445</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7673181542476755</v>
+        <v>0.2569474271387833</v>
       </c>
       <c r="C5">
-        <v>0.1582824108264731</v>
+        <v>0.04996030176565114</v>
       </c>
       <c r="D5">
-        <v>0.04367506860478443</v>
+        <v>0.02012818275431272</v>
       </c>
       <c r="E5">
-        <v>1.033524593189171</v>
+        <v>0.3189109501738301</v>
       </c>
       <c r="F5">
-        <v>0.401527618644181</v>
+        <v>0.6068201013650665</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2230202989434389</v>
+        <v>0.458627377340779</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8849930661054088</v>
+        <v>0.2765029866158386</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6433856016572435</v>
+        <v>1.216388262846045</v>
       </c>
       <c r="O5">
-        <v>1.171397087122983</v>
+        <v>2.059789110565589</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7618477917936843</v>
+        <v>0.2553044507992297</v>
       </c>
       <c r="C6">
-        <v>0.1572364282137073</v>
+        <v>0.04963639728438807</v>
       </c>
       <c r="D6">
-        <v>0.04343656972653065</v>
+        <v>0.0200454390299214</v>
       </c>
       <c r="E6">
-        <v>1.025619803123433</v>
+        <v>0.3167074590422914</v>
       </c>
       <c r="F6">
-        <v>0.4002943797147793</v>
+        <v>0.6067347125572269</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2230298355056206</v>
+        <v>0.4588035278624396</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8787527373991395</v>
+        <v>0.2746122230464607</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6449278282958257</v>
+        <v>1.217033221440543</v>
       </c>
       <c r="O6">
-        <v>1.169243875919761</v>
+        <v>2.060043904841578</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7998256539478916</v>
+        <v>0.2667079400669081</v>
       </c>
       <c r="C7">
-        <v>0.1644986514197484</v>
+        <v>0.05188259940449313</v>
       </c>
       <c r="D7">
-        <v>0.04509054119552047</v>
+        <v>0.02061890074220685</v>
       </c>
       <c r="E7">
-        <v>1.080627133436053</v>
+        <v>0.3320085036035749</v>
       </c>
       <c r="F7">
-        <v>0.4089324310939375</v>
+        <v>0.6073642138654947</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2230116006408807</v>
+        <v>0.4576049488790694</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9220761725157445</v>
+        <v>0.2877325757725941</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6343025773797475</v>
+        <v>1.212596258953075</v>
       </c>
       <c r="O7">
-        <v>1.184439348953106</v>
+        <v>2.05839436721304</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.96769357190243</v>
+        <v>0.3170121197505864</v>
       </c>
       <c r="C8">
-        <v>0.1966196328705365</v>
+        <v>0.06174376659831182</v>
       </c>
       <c r="D8">
-        <v>0.05235367913410727</v>
+        <v>0.0231277052974832</v>
       </c>
       <c r="E8">
-        <v>1.327318445018747</v>
+        <v>0.3996978156532123</v>
       </c>
       <c r="F8">
-        <v>0.4490885575852772</v>
+        <v>0.6110536926471255</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2241679281502407</v>
+        <v>0.4529127206142718</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.113584880802335</v>
+        <v>0.3455376061479001</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5894271826720603</v>
+        <v>1.194000972432589</v>
       </c>
       <c r="O8">
-        <v>1.257997112922453</v>
+        <v>2.054063522378527</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.298868550902</v>
+        <v>0.4155734735244891</v>
       </c>
       <c r="C9">
-        <v>0.2601508254206237</v>
+        <v>0.08089839569993273</v>
       </c>
       <c r="D9">
-        <v>0.06647959151745653</v>
+        <v>0.02796733855954869</v>
       </c>
       <c r="E9">
-        <v>1.830688219530003</v>
+        <v>0.5331519221147261</v>
       </c>
       <c r="F9">
-        <v>0.5362756026767457</v>
+        <v>0.6215739468373158</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2313975926364158</v>
+        <v>0.4458617095770414</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.491551297080775</v>
+        <v>0.4585399660351186</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5091131706128831</v>
+        <v>1.161075244190121</v>
       </c>
       <c r="O9">
-        <v>1.428952607710897</v>
+        <v>2.056200702562109</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.544437664528317</v>
+        <v>0.4879223112292266</v>
       </c>
       <c r="C10">
-        <v>0.307451362211026</v>
+        <v>0.09486110442108497</v>
       </c>
       <c r="D10">
-        <v>0.07679851356350298</v>
+        <v>0.03147285446512882</v>
       </c>
       <c r="E10">
-        <v>2.218262325143186</v>
+        <v>0.6317487387890992</v>
       </c>
       <c r="F10">
-        <v>0.6066277989741309</v>
+        <v>0.6313165380491554</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2402639425619668</v>
+        <v>0.4419975978579735</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.772023251053895</v>
+        <v>0.5413386479536939</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4552521177455251</v>
+        <v>1.139043985527552</v>
       </c>
       <c r="O10">
-        <v>1.574278223001016</v>
+        <v>2.064287731982006</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.656899350846146</v>
+        <v>0.520819553017958</v>
       </c>
       <c r="C11">
-        <v>0.3291783950969318</v>
+        <v>0.1011895636160887</v>
       </c>
       <c r="D11">
-        <v>0.08148286756786405</v>
+        <v>0.03305645241735533</v>
       </c>
       <c r="E11">
-        <v>2.399907953454914</v>
+        <v>0.6767467164284398</v>
       </c>
       <c r="F11">
-        <v>0.640279342240035</v>
+        <v>0.6361882923577724</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2451978218645827</v>
+        <v>0.4405267024191382</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.90054269999078</v>
+        <v>0.5789558663398964</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4319773634465367</v>
+        <v>1.129490597578853</v>
       </c>
       <c r="O11">
-        <v>1.64551278497683</v>
+        <v>2.069389979269175</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.699616745100087</v>
+        <v>0.5332744349278471</v>
       </c>
       <c r="C12">
-        <v>0.3374427800512194</v>
+        <v>0.1035826445485384</v>
       </c>
       <c r="D12">
-        <v>0.08325554073217489</v>
+        <v>0.03365449761152917</v>
       </c>
       <c r="E12">
-        <v>2.469599807520368</v>
+        <v>0.6938090645357846</v>
       </c>
       <c r="F12">
-        <v>0.6532847593539515</v>
+        <v>0.6380964993384595</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2472074047419852</v>
+        <v>0.4400110636896635</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.94937275882063</v>
+        <v>0.5931932769146329</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4233504455430825</v>
+        <v>1.125940445706261</v>
       </c>
       <c r="O12">
-        <v>1.673301371921127</v>
+        <v>2.071527350385168</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.690410599030031</v>
+        <v>0.5305921762110586</v>
       </c>
       <c r="C13">
-        <v>0.3356611451500271</v>
+        <v>0.103067402013977</v>
       </c>
       <c r="D13">
-        <v>0.08287381318008613</v>
+        <v>0.03352577089765418</v>
       </c>
       <c r="E13">
-        <v>2.454547697408699</v>
+        <v>0.6901333518449064</v>
       </c>
       <c r="F13">
-        <v>0.6504717163847857</v>
+        <v>0.6376827118321842</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2467681260002301</v>
+        <v>0.4401202747287201</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.938848617759476</v>
+        <v>0.590127332932127</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4251999291344486</v>
+        <v>1.126702030265719</v>
       </c>
       <c r="O13">
-        <v>1.66727912247228</v>
+        <v>2.071057891055972</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.660410982253694</v>
+        <v>0.5218442783456965</v>
       </c>
       <c r="C14">
-        <v>0.3298575322075976</v>
+        <v>0.1013865114984753</v>
       </c>
       <c r="D14">
-        <v>0.08162872901662155</v>
+        <v>0.03310568680723236</v>
       </c>
       <c r="E14">
-        <v>2.405622516099896</v>
+        <v>0.6781499839690497</v>
       </c>
       <c r="F14">
-        <v>0.6413438955873261</v>
+        <v>0.6363440106950975</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.245360250125831</v>
+        <v>0.4404834510691416</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.904556547105159</v>
+        <v>0.5801273379196061</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4312638175156334</v>
+        <v>1.129197170862483</v>
       </c>
       <c r="O14">
-        <v>1.64778219923187</v>
+        <v>2.069561705041934</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.642053064813211</v>
+        <v>0.5164855865738787</v>
       </c>
       <c r="C15">
-        <v>0.3263076577831328</v>
+        <v>0.1003564779753958</v>
       </c>
       <c r="D15">
-        <v>0.08086593069715775</v>
+        <v>0.03284815996775592</v>
       </c>
       <c r="E15">
-        <v>2.37577691849917</v>
+        <v>0.6708128155605522</v>
       </c>
       <c r="F15">
-        <v>0.6357877920242032</v>
+        <v>0.6355322755128583</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2445166435265449</v>
+        <v>0.4407112960116883</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.883573726703275</v>
+        <v>0.5740010729573441</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4350027612220071</v>
+        <v>1.130734311310619</v>
       </c>
       <c r="O15">
-        <v>1.635948118323768</v>
+        <v>2.068671996034084</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.537105025787668</v>
+        <v>0.4857720633426652</v>
       </c>
       <c r="C16">
-        <v>0.3060362245711303</v>
+        <v>0.09444705468365555</v>
       </c>
       <c r="D16">
-        <v>0.07649220139807511</v>
+        <v>0.03136913661393947</v>
       </c>
       <c r="E16">
-        <v>2.206510259578849</v>
+        <v>0.6288110875300958</v>
       </c>
       <c r="F16">
-        <v>0.6044638682707202</v>
+        <v>0.6310070190307187</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2399606031584156</v>
+        <v>0.4420995062339905</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.763645326974199</v>
+        <v>0.5388792621643574</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4567987281332009</v>
+        <v>1.139677763028056</v>
       </c>
       <c r="O16">
-        <v>1.569732402088334</v>
+        <v>2.063982980021763</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.472930592164317</v>
+        <v>0.4669262220450321</v>
       </c>
       <c r="C17">
-        <v>0.2936586114555411</v>
+        <v>0.09081584193900483</v>
       </c>
       <c r="D17">
-        <v>0.07380670512016962</v>
+        <v>0.03045894059707877</v>
       </c>
       <c r="E17">
-        <v>2.104131303882525</v>
+        <v>0.6030828814736537</v>
       </c>
       <c r="F17">
-        <v>0.5856870809310593</v>
+        <v>0.6283436613675519</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2374043042327187</v>
+        <v>0.4430246836350946</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.690331181611384</v>
+        <v>0.5173204619229637</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4704911638824356</v>
+        <v>1.145284410274492</v>
       </c>
       <c r="O17">
-        <v>1.530476274962467</v>
+        <v>2.0614714002987</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.436088377438011</v>
+        <v>0.4560852468399332</v>
       </c>
       <c r="C18">
-        <v>0.2865586432242111</v>
+        <v>0.08872507784579398</v>
       </c>
       <c r="D18">
-        <v>0.07226114476146961</v>
+        <v>0.029934379268866</v>
       </c>
       <c r="E18">
-        <v>2.045738641432123</v>
+        <v>0.588298322497721</v>
       </c>
       <c r="F18">
-        <v>0.5750406435455844</v>
+        <v>0.6268531564255611</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2360179915231093</v>
+        <v>0.4435838203440596</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.648248619494552</v>
+        <v>0.5049158901428257</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.478481510425901</v>
+        <v>1.148553319260589</v>
       </c>
       <c r="O18">
-        <v>1.508374624776394</v>
+        <v>2.060160750249793</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.42362547096053</v>
+        <v>0.4524144626958275</v>
       </c>
       <c r="C19">
-        <v>0.2841578402596383</v>
+        <v>0.08801680630992337</v>
       </c>
       <c r="D19">
-        <v>0.07173767785229046</v>
+        <v>0.02975659417741383</v>
       </c>
       <c r="E19">
-        <v>2.026048588331832</v>
+        <v>0.5832948155520228</v>
       </c>
       <c r="F19">
-        <v>0.5714615657817177</v>
+        <v>0.6263556013268712</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2355626961159309</v>
+        <v>0.4437777685057149</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.634014095016397</v>
+        <v>0.5007151531562783</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4812063241501434</v>
+        <v>1.149667689139234</v>
       </c>
       <c r="O19">
-        <v>1.500971162001548</v>
+        <v>2.059739974233082</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.479754748958385</v>
+        <v>0.4689325368490529</v>
       </c>
       <c r="C20">
-        <v>0.2949741852048362</v>
+        <v>0.09120261722850387</v>
       </c>
       <c r="D20">
-        <v>0.0740926759270053</v>
+        <v>0.03055594048053223</v>
       </c>
       <c r="E20">
-        <v>2.114977738642949</v>
+        <v>0.6058202711047045</v>
       </c>
       <c r="F20">
-        <v>0.5876698415294825</v>
+        <v>0.6286228958502207</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2376676508464008</v>
+        <v>0.4429234018844532</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.69812651956201</v>
+        <v>0.5196159042021122</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4690216253038439</v>
+        <v>1.144683006743435</v>
       </c>
       <c r="O20">
-        <v>1.534605210767126</v>
+        <v>2.061724895360271</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.669218861938646</v>
+        <v>0.5244138221738694</v>
       </c>
       <c r="C21">
-        <v>0.3315611378383494</v>
+        <v>0.1018803214363402</v>
       </c>
       <c r="D21">
-        <v>0.0819944709199234</v>
+        <v>0.03322912018343516</v>
       </c>
       <c r="E21">
-        <v>2.419967228254194</v>
+        <v>0.6816691634750356</v>
       </c>
       <c r="F21">
-        <v>0.6440176258083596</v>
+        <v>0.6367354984828353</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2457698458366728</v>
+        <v>0.4403756541427626</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.91462430654579</v>
+        <v>0.5830647837671847</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4294775526344363</v>
+        <v>1.128462454569926</v>
       </c>
       <c r="O21">
-        <v>1.653486191999747</v>
+        <v>2.069995595826327</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.793817883567243</v>
+        <v>0.5606587290529319</v>
       </c>
       <c r="C22">
-        <v>0.3556911169928014</v>
+        <v>0.1088391680272309</v>
       </c>
       <c r="D22">
-        <v>0.08715192525778548</v>
+        <v>0.03496668612160647</v>
       </c>
       <c r="E22">
-        <v>2.624657264565542</v>
+        <v>0.7313732378803905</v>
       </c>
       <c r="F22">
-        <v>0.6823865133419389</v>
+        <v>0.6424070401718325</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2518945013830418</v>
+        <v>0.4389516634961055</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.057080840011821</v>
+        <v>0.6244888668702799</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4047269871052315</v>
+        <v>1.118254929640164</v>
       </c>
       <c r="O22">
-        <v>1.735964825159442</v>
+        <v>2.076597662456379</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.727238252207826</v>
+        <v>0.5413157032594427</v>
       </c>
       <c r="C23">
-        <v>0.3427901274984038</v>
+        <v>0.1051269072553964</v>
       </c>
       <c r="D23">
-        <v>0.08439984413599433</v>
+        <v>0.03404019661113722</v>
       </c>
       <c r="E23">
-        <v>2.514869135529239</v>
+        <v>0.7048325792939352</v>
       </c>
       <c r="F23">
-        <v>0.661758221702712</v>
+        <v>0.6393461783937369</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2485456159863411</v>
+        <v>0.4396895792600937</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.980950821181438</v>
+        <v>0.6023841812907165</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4178331276448599</v>
+        <v>1.123666833282712</v>
       </c>
       <c r="O23">
-        <v>1.691479603830743</v>
+        <v>2.072964327735207</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.476669385758612</v>
+        <v>0.4680255013583121</v>
       </c>
       <c r="C24">
-        <v>0.2943793647019248</v>
+        <v>0.09102776587369021</v>
       </c>
       <c r="D24">
-        <v>0.0739633936270323</v>
+        <v>0.0305120908092178</v>
       </c>
       <c r="E24">
-        <v>2.110072623177473</v>
+        <v>0.6045826758208079</v>
       </c>
       <c r="F24">
-        <v>0.5867729745329484</v>
+        <v>0.6284965271862148</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2375483331391663</v>
+        <v>0.442969106518138</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.694602041594464</v>
+        <v>0.5185781662694922</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4696856357283448</v>
+        <v>1.144954759324653</v>
       </c>
       <c r="O24">
-        <v>1.532737069309746</v>
+        <v>2.061609875080507</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.208961633325288</v>
+        <v>0.3889203981696028</v>
       </c>
       <c r="C25">
-        <v>0.2428772321796373</v>
+        <v>0.07573601648925887</v>
       </c>
       <c r="D25">
-        <v>0.06266950268287275</v>
+        <v>0.02666680388574605</v>
       </c>
       <c r="E25">
-        <v>1.691852752381067</v>
+        <v>0.496960921705778</v>
       </c>
       <c r="F25">
-        <v>0.5116721139873661</v>
+        <v>0.6183751400647779</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2288582941836381</v>
+        <v>0.447538429811452</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.388914272038193</v>
+        <v>0.4280085604366093</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5299719274537456</v>
+        <v>1.169603452473755</v>
       </c>
       <c r="O25">
-        <v>1.379506268203102</v>
+        <v>2.054480762449003</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_202/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_202/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3306367468558449</v>
+        <v>1.0132759790053</v>
       </c>
       <c r="C2">
-        <v>0.06440320679725176</v>
+        <v>0.2053495149297078</v>
       </c>
       <c r="D2">
-        <v>0.02380209259329291</v>
+        <v>0.05431328599937046</v>
       </c>
       <c r="E2">
-        <v>0.4180825186005563</v>
+        <v>1.395292138253325</v>
       </c>
       <c r="F2">
-        <v>0.6122752868145653</v>
+        <v>0.4605004244455415</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4517866951497496</v>
+        <v>0.2247987601254451</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3611763121003264</v>
+        <v>1.165593111650935</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.189202072763843</v>
+        <v>0.577772477636751</v>
       </c>
       <c r="O2">
-        <v>2.053608104493634</v>
+        <v>1.279616624954969</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2911160902318386</v>
+        <v>0.8812003838262115</v>
       </c>
       <c r="C3">
-        <v>0.05667629207731295</v>
+        <v>0.1800644660797559</v>
       </c>
       <c r="D3">
-        <v>0.02184017161742702</v>
+        <v>0.04862078276502046</v>
       </c>
       <c r="E3">
-        <v>0.3648139447740704</v>
+        <v>1.199493521828856</v>
       </c>
       <c r="F3">
-        <v>0.6089813308479037</v>
+        <v>0.4280140974214817</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4552154285460013</v>
+        <v>0.2233319828224687</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.315793928048123</v>
+        <v>1.014907234807424</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.203388477486316</v>
+        <v>0.6121450486957309</v>
       </c>
       <c r="O3">
-        <v>2.05573438518465</v>
+        <v>1.218852667249507</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2668413665212199</v>
+        <v>0.800270150922529</v>
       </c>
       <c r="C4">
-        <v>0.05190885488340768</v>
+        <v>0.164583656951578</v>
       </c>
       <c r="D4">
-        <v>0.0206255991230222</v>
+        <v>0.04510987478832362</v>
       </c>
       <c r="E4">
-        <v>0.3321876317310313</v>
+        <v>1.081272718356473</v>
       </c>
       <c r="F4">
-        <v>0.6073720781821166</v>
+        <v>0.4090345727539599</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4575912503754189</v>
+        <v>0.2230120411579151</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2878860502833902</v>
+        <v>0.9225832369250213</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.212544879463678</v>
+        <v>0.6341793295643416</v>
       </c>
       <c r="O4">
-        <v>2.058376677175445</v>
+        <v>1.184620565841328</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2569474271387833</v>
+        <v>0.7673181542475618</v>
       </c>
       <c r="C5">
-        <v>0.04996030176565114</v>
+        <v>0.1582824108262599</v>
       </c>
       <c r="D5">
-        <v>0.02012818275431272</v>
+        <v>0.04367506860477022</v>
       </c>
       <c r="E5">
-        <v>0.3189109501738301</v>
+        <v>1.033524593189156</v>
       </c>
       <c r="F5">
-        <v>0.6068201013650665</v>
+        <v>0.4015276186441596</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.458627377340779</v>
+        <v>0.2230202989434424</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2765029866158386</v>
+        <v>0.8849930661054941</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.216388262846045</v>
+        <v>0.6433856016572328</v>
       </c>
       <c r="O5">
-        <v>2.059789110565589</v>
+        <v>1.171397087123026</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2553044507992297</v>
+        <v>0.7618477917936843</v>
       </c>
       <c r="C6">
-        <v>0.04963639728438807</v>
+        <v>0.1572364282137357</v>
       </c>
       <c r="D6">
-        <v>0.0200454390299214</v>
+        <v>0.04343656972658039</v>
       </c>
       <c r="E6">
-        <v>0.3167074590422914</v>
+        <v>1.025619803123462</v>
       </c>
       <c r="F6">
-        <v>0.6067347125572269</v>
+        <v>0.400294379714758</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4588035278624396</v>
+        <v>0.2230298355056348</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2746122230464607</v>
+        <v>0.8787527373991679</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.217033221440543</v>
+        <v>0.6449278282958817</v>
       </c>
       <c r="O6">
-        <v>2.060043904841578</v>
+        <v>1.169243875919733</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2667079400669081</v>
+        <v>0.7998256539478632</v>
       </c>
       <c r="C7">
-        <v>0.05188259940449313</v>
+        <v>0.1644986514197626</v>
       </c>
       <c r="D7">
-        <v>0.02061890074220685</v>
+        <v>0.04509054119564837</v>
       </c>
       <c r="E7">
-        <v>0.3320085036035749</v>
+        <v>1.080627133436053</v>
       </c>
       <c r="F7">
-        <v>0.6073642138654947</v>
+        <v>0.4089324310939375</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4576049488790694</v>
+        <v>0.2230116006408771</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2877325757725941</v>
+        <v>0.9220761725157445</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.212596258953075</v>
+        <v>0.6343025773798043</v>
       </c>
       <c r="O7">
-        <v>2.05839436721304</v>
+        <v>1.18443934895312</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3170121197505864</v>
+        <v>0.9676935719023163</v>
       </c>
       <c r="C8">
-        <v>0.06174376659831182</v>
+        <v>0.1966196328706928</v>
       </c>
       <c r="D8">
-        <v>0.0231277052974832</v>
+        <v>0.05235367913398647</v>
       </c>
       <c r="E8">
-        <v>0.3996978156532123</v>
+        <v>1.327318445018747</v>
       </c>
       <c r="F8">
-        <v>0.6110536926471255</v>
+        <v>0.4490885575852914</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4529127206142718</v>
+        <v>0.2241679281502407</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3455376061479001</v>
+        <v>1.113584880802478</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.194000972432589</v>
+        <v>0.5894271826720514</v>
       </c>
       <c r="O8">
-        <v>2.054063522378527</v>
+        <v>1.257997112922453</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4155734735244891</v>
+        <v>1.298868550901972</v>
       </c>
       <c r="C9">
-        <v>0.08089839569993273</v>
+        <v>0.2601508254211069</v>
       </c>
       <c r="D9">
-        <v>0.02796733855954869</v>
+        <v>0.06647959151733573</v>
       </c>
       <c r="E9">
-        <v>0.5331519221147261</v>
+        <v>1.830688219529947</v>
       </c>
       <c r="F9">
-        <v>0.6215739468373158</v>
+        <v>0.5362756026767528</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4458617095770414</v>
+        <v>0.23139759263643</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4585399660351186</v>
+        <v>1.491551297080861</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.161075244190121</v>
+        <v>0.5091131706128724</v>
       </c>
       <c r="O9">
-        <v>2.056200702562109</v>
+        <v>1.428952607710926</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4879223112292266</v>
+        <v>1.544437664528346</v>
       </c>
       <c r="C10">
-        <v>0.09486110442108497</v>
+        <v>0.307451362210827</v>
       </c>
       <c r="D10">
-        <v>0.03147285446512882</v>
+        <v>0.07679851356349587</v>
       </c>
       <c r="E10">
-        <v>0.6317487387890992</v>
+        <v>2.218262325143186</v>
       </c>
       <c r="F10">
-        <v>0.6313165380491554</v>
+        <v>0.6066277989741167</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4419975978579735</v>
+        <v>0.2402639425619704</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5413386479536939</v>
+        <v>1.772023251053952</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.139043985527552</v>
+        <v>0.4552521177455233</v>
       </c>
       <c r="O10">
-        <v>2.064287731982006</v>
+        <v>1.574278223001102</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.520819553017958</v>
+        <v>1.656899350846317</v>
       </c>
       <c r="C11">
-        <v>0.1011895636160887</v>
+        <v>0.3291783950971876</v>
       </c>
       <c r="D11">
-        <v>0.03305645241735533</v>
+        <v>0.0814828675678001</v>
       </c>
       <c r="E11">
-        <v>0.6767467164284398</v>
+        <v>2.399907953454871</v>
       </c>
       <c r="F11">
-        <v>0.6361882923577724</v>
+        <v>0.6402793422400208</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4405267024191382</v>
+        <v>0.2451978218645827</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5789558663398964</v>
+        <v>1.900542699990723</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.129490597578853</v>
+        <v>0.4319773634465474</v>
       </c>
       <c r="O11">
-        <v>2.069389979269175</v>
+        <v>1.645512784976773</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5332744349278471</v>
+        <v>1.699616745100229</v>
       </c>
       <c r="C12">
-        <v>0.1035826445485384</v>
+        <v>0.3374427800512478</v>
       </c>
       <c r="D12">
-        <v>0.03365449761152917</v>
+        <v>0.08325554073213226</v>
       </c>
       <c r="E12">
-        <v>0.6938090645357846</v>
+        <v>2.469599807520353</v>
       </c>
       <c r="F12">
-        <v>0.6380964993384595</v>
+        <v>0.6532847593539515</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4400110636896635</v>
+        <v>0.247207404741971</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5931932769146329</v>
+        <v>1.949372758820715</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.125940445706261</v>
+        <v>0.4233504455430257</v>
       </c>
       <c r="O12">
-        <v>2.071527350385168</v>
+        <v>1.673301371921127</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5305921762110586</v>
+        <v>1.690410599030173</v>
       </c>
       <c r="C13">
-        <v>0.103067402013977</v>
+        <v>0.3356611451500271</v>
       </c>
       <c r="D13">
-        <v>0.03352577089765418</v>
+        <v>0.08287381318003639</v>
       </c>
       <c r="E13">
-        <v>0.6901333518449064</v>
+        <v>2.454547697408657</v>
       </c>
       <c r="F13">
-        <v>0.6376827118321842</v>
+        <v>0.6504717163847857</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4401202747287201</v>
+        <v>0.2467681260002443</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.590127332932127</v>
+        <v>1.938848617759589</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.126702030265719</v>
+        <v>0.4251999291345108</v>
       </c>
       <c r="O13">
-        <v>2.071057891055972</v>
+        <v>1.66727912247228</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5218442783456965</v>
+        <v>1.660410982253694</v>
       </c>
       <c r="C14">
-        <v>0.1013865114984753</v>
+        <v>0.3298575322077966</v>
       </c>
       <c r="D14">
-        <v>0.03310568680723236</v>
+        <v>0.08162872901662865</v>
       </c>
       <c r="E14">
-        <v>0.6781499839690497</v>
+        <v>2.405622516099882</v>
       </c>
       <c r="F14">
-        <v>0.6363440106950975</v>
+        <v>0.6413438955873261</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4404834510691416</v>
+        <v>0.2453602501258274</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5801273379196061</v>
+        <v>1.904556547105244</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.129197170862483</v>
+        <v>0.4312638175155765</v>
       </c>
       <c r="O14">
-        <v>2.069561705041934</v>
+        <v>1.647782199231841</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5164855865738787</v>
+        <v>1.642053064813183</v>
       </c>
       <c r="C15">
-        <v>0.1003564779753958</v>
+        <v>0.3263076577831043</v>
       </c>
       <c r="D15">
-        <v>0.03284815996775592</v>
+        <v>0.08086593069703696</v>
       </c>
       <c r="E15">
-        <v>0.6708128155605522</v>
+        <v>2.375776918499156</v>
       </c>
       <c r="F15">
-        <v>0.6355322755128583</v>
+        <v>0.635787792024189</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4407112960116883</v>
+        <v>0.2445166435265449</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5740010729573441</v>
+        <v>1.883573726703133</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.130734311310619</v>
+        <v>0.4350027612220018</v>
       </c>
       <c r="O15">
-        <v>2.068671996034084</v>
+        <v>1.635948118323768</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4857720633426652</v>
+        <v>1.537105025787582</v>
       </c>
       <c r="C16">
-        <v>0.09444705468365555</v>
+        <v>0.3060362245708461</v>
       </c>
       <c r="D16">
-        <v>0.03136913661393947</v>
+        <v>0.0764922013981959</v>
       </c>
       <c r="E16">
-        <v>0.6288110875300958</v>
+        <v>2.206510259578849</v>
       </c>
       <c r="F16">
-        <v>0.6310070190307187</v>
+        <v>0.604463868270706</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4420995062339905</v>
+        <v>0.2399606031584298</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5388792621643574</v>
+        <v>1.763645326974313</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.139677763028056</v>
+        <v>0.4567987281331973</v>
       </c>
       <c r="O16">
-        <v>2.063982980021763</v>
+        <v>1.569732402088334</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4669262220450321</v>
+        <v>1.472930592164346</v>
       </c>
       <c r="C17">
-        <v>0.09081584193900483</v>
+        <v>0.2936586114555411</v>
       </c>
       <c r="D17">
-        <v>0.03045894059707877</v>
+        <v>0.07380670512004173</v>
       </c>
       <c r="E17">
-        <v>0.6030828814736537</v>
+        <v>2.104131303882511</v>
       </c>
       <c r="F17">
-        <v>0.6283436613675519</v>
+        <v>0.585687080931045</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4430246836350946</v>
+        <v>0.2374043042327294</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5173204619229637</v>
+        <v>1.690331181611469</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.145284410274492</v>
+        <v>0.4704911638824232</v>
       </c>
       <c r="O17">
-        <v>2.0614714002987</v>
+        <v>1.530476274962524</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4560852468399332</v>
+        <v>1.436088377437983</v>
       </c>
       <c r="C18">
-        <v>0.08872507784579398</v>
+        <v>0.2865586432244669</v>
       </c>
       <c r="D18">
-        <v>0.029934379268866</v>
+        <v>0.07226114476149803</v>
       </c>
       <c r="E18">
-        <v>0.588298322497721</v>
+        <v>2.045738641432138</v>
       </c>
       <c r="F18">
-        <v>0.6268531564255611</v>
+        <v>0.575040643545556</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4435838203440596</v>
+        <v>0.2360179915231271</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5049158901428257</v>
+        <v>1.648248619494439</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.148553319260589</v>
+        <v>0.478481510425901</v>
       </c>
       <c r="O18">
-        <v>2.060160750249793</v>
+        <v>1.508374624776422</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4524144626958275</v>
+        <v>1.423625470960332</v>
       </c>
       <c r="C19">
-        <v>0.08801680630992337</v>
+        <v>0.284157840259553</v>
       </c>
       <c r="D19">
-        <v>0.02975659417741383</v>
+        <v>0.0717376778523402</v>
       </c>
       <c r="E19">
-        <v>0.5832948155520228</v>
+        <v>2.026048588331818</v>
       </c>
       <c r="F19">
-        <v>0.6263556013268712</v>
+        <v>0.5714615657817319</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4437777685057149</v>
+        <v>0.2355626961159167</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5007151531562783</v>
+        <v>1.634014095016312</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.149667689139234</v>
+        <v>0.4812063241501434</v>
       </c>
       <c r="O19">
-        <v>2.059739974233082</v>
+        <v>1.500971162001548</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4689325368490529</v>
+        <v>1.479754748958328</v>
       </c>
       <c r="C20">
-        <v>0.09120261722850387</v>
+        <v>0.2949741852052199</v>
       </c>
       <c r="D20">
-        <v>0.03055594048053223</v>
+        <v>0.0740926759270053</v>
       </c>
       <c r="E20">
-        <v>0.6058202711047045</v>
+        <v>2.114977738642892</v>
       </c>
       <c r="F20">
-        <v>0.6286228958502207</v>
+        <v>0.5876698415294825</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4429234018844532</v>
+        <v>0.2376676508464151</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5196159042021122</v>
+        <v>1.698126519561981</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.144683006743435</v>
+        <v>0.4690216253038368</v>
       </c>
       <c r="O20">
-        <v>2.061724895360271</v>
+        <v>1.534605210767126</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5244138221738694</v>
+        <v>1.669218861938816</v>
       </c>
       <c r="C21">
-        <v>0.1018803214363402</v>
+        <v>0.3315611378380083</v>
       </c>
       <c r="D21">
-        <v>0.03322912018343516</v>
+        <v>0.08199447091985945</v>
       </c>
       <c r="E21">
-        <v>0.6816691634750356</v>
+        <v>2.419967228254151</v>
       </c>
       <c r="F21">
-        <v>0.6367354984828353</v>
+        <v>0.6440176258083739</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4403756541427626</v>
+        <v>0.2457698458366799</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5830647837671847</v>
+        <v>1.91462430654579</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.128462454569926</v>
+        <v>0.4294775526344363</v>
       </c>
       <c r="O21">
-        <v>2.069995595826327</v>
+        <v>1.653486191999775</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5606587290529319</v>
+        <v>1.793817883567385</v>
       </c>
       <c r="C22">
-        <v>0.1088391680272309</v>
+        <v>0.3556911169928867</v>
       </c>
       <c r="D22">
-        <v>0.03496668612160647</v>
+        <v>0.08715192525783522</v>
       </c>
       <c r="E22">
-        <v>0.7313732378803905</v>
+        <v>2.624657264565542</v>
       </c>
       <c r="F22">
-        <v>0.6424070401718325</v>
+        <v>0.6823865133419389</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4389516634961055</v>
+        <v>0.251894501383056</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6244888668702799</v>
+        <v>2.057080840011849</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.118254929640164</v>
+        <v>0.4047269871052226</v>
       </c>
       <c r="O22">
-        <v>2.076597662456379</v>
+        <v>1.735964825159471</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5413157032594427</v>
+        <v>1.72723825220811</v>
       </c>
       <c r="C23">
-        <v>0.1051269072553964</v>
+        <v>0.3427901274983469</v>
       </c>
       <c r="D23">
-        <v>0.03404019661113722</v>
+        <v>0.08439984413594459</v>
       </c>
       <c r="E23">
-        <v>0.7048325792939352</v>
+        <v>2.51486913552921</v>
       </c>
       <c r="F23">
-        <v>0.6393461783937369</v>
+        <v>0.6617582217026836</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4396895792600937</v>
+        <v>0.2485456159863482</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6023841812907165</v>
+        <v>1.980950821181438</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.123666833282712</v>
+        <v>0.4178331276449043</v>
       </c>
       <c r="O23">
-        <v>2.072964327735207</v>
+        <v>1.691479603830743</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4680255013583121</v>
+        <v>1.476669385758612</v>
       </c>
       <c r="C24">
-        <v>0.09102776587369021</v>
+        <v>0.2943793647016975</v>
       </c>
       <c r="D24">
-        <v>0.0305120908092178</v>
+        <v>0.07396339362691151</v>
       </c>
       <c r="E24">
-        <v>0.6045826758208079</v>
+        <v>2.110072623177501</v>
       </c>
       <c r="F24">
-        <v>0.6284965271862148</v>
+        <v>0.5867729745329342</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.442969106518138</v>
+        <v>0.2375483331391486</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5185781662694922</v>
+        <v>1.694602041594464</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.144954759324653</v>
+        <v>0.4696856357283359</v>
       </c>
       <c r="O24">
-        <v>2.061609875080507</v>
+        <v>1.532737069309746</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3889203981696028</v>
+        <v>1.20896163332506</v>
       </c>
       <c r="C25">
-        <v>0.07573601648925887</v>
+        <v>0.2428772321794099</v>
       </c>
       <c r="D25">
-        <v>0.02666680388574605</v>
+        <v>0.0626695026828088</v>
       </c>
       <c r="E25">
-        <v>0.496960921705778</v>
+        <v>1.691852752381052</v>
       </c>
       <c r="F25">
-        <v>0.6183751400647779</v>
+        <v>0.5116721139873732</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.447538429811452</v>
+        <v>0.2288582941836381</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4280085604366093</v>
+        <v>1.388914272038278</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.169603452473755</v>
+        <v>0.5299719274537402</v>
       </c>
       <c r="O25">
-        <v>2.054480762449003</v>
+        <v>1.379506268203102</v>
       </c>
     </row>
   </sheetData>
